--- a/team_specific_matrix/Southern California_A.xlsx
+++ b/team_specific_matrix/Southern California_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2035398230088496</v>
+        <v>0.1635220125786163</v>
       </c>
       <c r="C2">
-        <v>0.5575221238938053</v>
+        <v>0.6163522012578616</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02654867256637168</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1327433628318584</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07964601769911504</v>
+        <v>0.08176100628930817</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02898550724637681</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C3">
-        <v>0.04347826086956522</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01449275362318841</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2463768115942029</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3636363636363636</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06779661016949153</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01694915254237288</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1016949152542373</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2203389830508475</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.05084745762711865</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1694915254237288</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="R6">
-        <v>0.0847457627118644</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="S6">
-        <v>0.288135593220339</v>
+        <v>0.3069306930693069</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09090909090909091</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07272727272727272</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1272727272727273</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03636363636363636</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1454545454545454</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="R7">
-        <v>0.1454545454545454</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="S7">
-        <v>0.3818181818181818</v>
+        <v>0.4177215189873418</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1363636363636364</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02272727272727273</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="F8">
-        <v>0.05303030303030303</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08333333333333333</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01515151515151515</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1515151515151515</v>
+        <v>0.1701030927835052</v>
       </c>
       <c r="R8">
-        <v>0.1287878787878788</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="S8">
-        <v>0.4090909090909091</v>
+        <v>0.3814432989690721</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07936507936507936</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07936507936507936</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1746031746031746</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1587301587301587</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="R9">
-        <v>0.06349206349206349</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S9">
-        <v>0.4444444444444444</v>
+        <v>0.4111111111111111</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1443037974683544</v>
+        <v>0.1359867330016584</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01772151898734177</v>
+        <v>0.02321724709784411</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.001658374792703151</v>
       </c>
       <c r="F10">
-        <v>0.05316455696202532</v>
+        <v>0.06633499170812604</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1291139240506329</v>
+        <v>0.1326699834162521</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02278481012658228</v>
+        <v>0.01658374792703151</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.210126582278481</v>
+        <v>0.1923714759535655</v>
       </c>
       <c r="R10">
-        <v>0.07341772151898734</v>
+        <v>0.07131011608623548</v>
       </c>
       <c r="S10">
-        <v>0.3493670886075949</v>
+        <v>0.3598673300165838</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1494252873563219</v>
+        <v>0.1484375</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08045977011494253</v>
+        <v>0.09375</v>
       </c>
       <c r="K11">
-        <v>0.2068965517241379</v>
+        <v>0.1953125</v>
       </c>
       <c r="L11">
-        <v>0.5517241379310345</v>
+        <v>0.5390625</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01149425287356322</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7708333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1875</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="K12">
-        <v>0.02083333333333333</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="L12">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02631578947368421</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.131578947368421</v>
+        <v>0.1650485436893204</v>
       </c>
       <c r="I15">
-        <v>0.09210526315789473</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="J15">
-        <v>0.3684210526315789</v>
+        <v>0.3300970873786408</v>
       </c>
       <c r="K15">
-        <v>0.06578947368421052</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03947368421052631</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2763157894736842</v>
+        <v>0.2912621359223301</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.171875</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="I16">
-        <v>0.0625</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="J16">
-        <v>0.40625</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="K16">
-        <v>0.109375</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.046875</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.171875</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007751937984496124</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2093023255813954</v>
+        <v>0.2180851063829787</v>
       </c>
       <c r="I17">
-        <v>0.124031007751938</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="J17">
-        <v>0.4031007751937984</v>
+        <v>0.398936170212766</v>
       </c>
       <c r="K17">
-        <v>0.06201550387596899</v>
+        <v>0.06914893617021277</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0310077519379845</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07751937984496124</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08527131782945736</v>
+        <v>0.101063829787234</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03076923076923077</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1692307692307692</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I18">
-        <v>0.1538461538461539</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="J18">
-        <v>0.3076923076923077</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="K18">
-        <v>0.06153846153846154</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01538461538461539</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09230769230769231</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1692307692307692</v>
+        <v>0.1758241758241758</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01308900523560209</v>
+        <v>0.01706484641638225</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1963350785340314</v>
+        <v>0.1843003412969283</v>
       </c>
       <c r="I19">
-        <v>0.06806282722513089</v>
+        <v>0.08020477815699659</v>
       </c>
       <c r="J19">
-        <v>0.3979057591623036</v>
+        <v>0.4112627986348123</v>
       </c>
       <c r="K19">
-        <v>0.112565445026178</v>
+        <v>0.1143344709897611</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01570680628272251</v>
+        <v>0.0136518771331058</v>
       </c>
       <c r="N19">
-        <v>0.002617801047120419</v>
+        <v>0.001706484641638225</v>
       </c>
       <c r="O19">
-        <v>0.07591623036649214</v>
+        <v>0.06484641638225255</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1178010471204188</v>
+        <v>0.1126279863481229</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southern California_A.xlsx
+++ b/team_specific_matrix/Southern California_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1635220125786163</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C2">
-        <v>0.6163522012578616</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02515723270440252</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1132075471698113</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08176100628930817</v>
+        <v>0.07428571428571429</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C3">
-        <v>0.04629629629629629</v>
+        <v>0.04385964912280702</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03703703703703703</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2222222222222222</v>
+        <v>0.2280701754385965</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5454545454545454</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4090909090909091</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07920792079207921</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009900990099009901</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09900990099009901</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2376237623762376</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0396039603960396</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1683168316831683</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="R6">
-        <v>0.0594059405940594</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="S6">
-        <v>0.3069306930693069</v>
+        <v>0.3113207547169811</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1012658227848101</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06329113924050633</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1139240506329114</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0379746835443038</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1139240506329114</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="R7">
-        <v>0.1518987341772152</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="S7">
-        <v>0.4177215189873418</v>
+        <v>0.3953488372093023</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1288659793814433</v>
+        <v>0.1291866028708134</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03608247422680412</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="E8">
-        <v>0.005154639175257732</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="F8">
-        <v>0.05154639175257732</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07731958762886598</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02577319587628866</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1701030927835052</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R8">
-        <v>0.1237113402061856</v>
+        <v>0.1148325358851675</v>
       </c>
       <c r="S8">
-        <v>0.3814432989690721</v>
+        <v>0.3779904306220095</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08888888888888889</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01111111111111111</v>
+        <v>0.01</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06666666666666667</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1666666666666667</v>
+        <v>0.16</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01111111111111111</v>
+        <v>0.02</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1888888888888889</v>
+        <v>0.19</v>
       </c>
       <c r="R9">
-        <v>0.05555555555555555</v>
+        <v>0.05</v>
       </c>
       <c r="S9">
-        <v>0.4111111111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1359867330016584</v>
+        <v>0.135303265940902</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02321724709784411</v>
+        <v>0.02332814930015552</v>
       </c>
       <c r="E10">
-        <v>0.001658374792703151</v>
+        <v>0.001555209953343701</v>
       </c>
       <c r="F10">
-        <v>0.06633499170812604</v>
+        <v>0.06687402799377916</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1326699834162521</v>
+        <v>0.1306376360808709</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01658374792703151</v>
+        <v>0.01555209953343701</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1923714759535655</v>
+        <v>0.1990668740279938</v>
       </c>
       <c r="R10">
-        <v>0.07131011608623548</v>
+        <v>0.06687402799377916</v>
       </c>
       <c r="S10">
-        <v>0.3598673300165838</v>
+        <v>0.3608087091757387</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1484375</v>
+        <v>0.1510791366906475</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09375</v>
+        <v>0.09352517985611511</v>
       </c>
       <c r="K11">
-        <v>0.1953125</v>
+        <v>0.1942446043165468</v>
       </c>
       <c r="L11">
-        <v>0.5390625</v>
+        <v>0.539568345323741</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0234375</v>
+        <v>0.02158273381294964</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7564102564102564</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1527777777777778</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="K12">
-        <v>0.02777777777777778</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L12">
-        <v>0.04166666666666666</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02777777777777778</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01941747572815534</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1650485436893204</v>
+        <v>0.1946902654867257</v>
       </c>
       <c r="I15">
-        <v>0.07766990291262135</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="J15">
-        <v>0.3300970873786408</v>
+        <v>0.3097345132743363</v>
       </c>
       <c r="K15">
-        <v>0.06796116504854369</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04854368932038835</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2912621359223301</v>
+        <v>0.2831858407079646</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1717171717171717</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="I16">
-        <v>0.0505050505050505</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="J16">
-        <v>0.3939393939393939</v>
+        <v>0.4220183486238532</v>
       </c>
       <c r="K16">
-        <v>0.101010101010101</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04040404040404041</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0303030303030303</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2121212121212121</v>
+        <v>0.2018348623853211</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02659574468085106</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2180851063829787</v>
+        <v>0.2227488151658768</v>
       </c>
       <c r="I17">
-        <v>0.101063829787234</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="J17">
-        <v>0.398936170212766</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="K17">
-        <v>0.06914893617021277</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02659574468085106</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05851063829787234</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.101063829787234</v>
+        <v>0.1042654028436019</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02197802197802198</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1428571428571428</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="I18">
-        <v>0.1208791208791209</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="J18">
-        <v>0.3736263736263736</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="K18">
-        <v>0.04395604395604396</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01098901098901099</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1098901098901099</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1758241758241758</v>
+        <v>0.1720430107526882</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01706484641638225</v>
+        <v>0.01605136436597111</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1843003412969283</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="I19">
-        <v>0.08020477815699659</v>
+        <v>0.08667736757624397</v>
       </c>
       <c r="J19">
-        <v>0.4112627986348123</v>
+        <v>0.4109149277688603</v>
       </c>
       <c r="K19">
-        <v>0.1143344709897611</v>
+        <v>0.115569823434992</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0136518771331058</v>
+        <v>0.01284109149277689</v>
       </c>
       <c r="N19">
-        <v>0.001706484641638225</v>
+        <v>0.001605136436597111</v>
       </c>
       <c r="O19">
-        <v>0.06484641638225255</v>
+        <v>0.06581059390048154</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1126279863481229</v>
+        <v>0.1107544141252006</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southern California_A.xlsx
+++ b/team_specific_matrix/Southern California_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1771428571428571</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="C2">
-        <v>0.5942857142857143</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02285714285714286</v>
+        <v>0.01453488372093023</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1314285714285714</v>
+        <v>0.1308139534883721</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07428571428571429</v>
+        <v>0.1220930232558139</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02631578947368421</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="C3">
-        <v>0.04385964912280702</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03508771929824561</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6666666666666666</v>
+        <v>0.6852791878172588</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2280701754385965</v>
+        <v>0.233502538071066</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04166666666666666</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P4">
-        <v>0.5416666666666666</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4166666666666667</v>
+        <v>0.2830188679245283</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07547169811320754</v>
+        <v>0.0546875</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009433962264150943</v>
+        <v>0.0078125</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09433962264150944</v>
+        <v>0.1328125</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2264150943396226</v>
+        <v>0.22265625</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03773584905660377</v>
+        <v>0.03125</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1886792452830189</v>
+        <v>0.16015625</v>
       </c>
       <c r="R6">
-        <v>0.05660377358490566</v>
+        <v>0.05859375</v>
       </c>
       <c r="S6">
-        <v>0.3113207547169811</v>
+        <v>0.33203125</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1162790697674419</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05813953488372093</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1162790697674419</v>
+        <v>0.1187214611872146</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03488372093023256</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1162790697674419</v>
+        <v>0.1872146118721461</v>
       </c>
       <c r="R7">
-        <v>0.1627906976744186</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="S7">
-        <v>0.3953488372093023</v>
+        <v>0.3789954337899543</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1291866028708134</v>
+        <v>0.1026200873362445</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03827751196172249</v>
+        <v>0.0240174672489083</v>
       </c>
       <c r="E8">
-        <v>0.004784688995215311</v>
+        <v>0.002183406113537118</v>
       </c>
       <c r="F8">
-        <v>0.04784688995215311</v>
+        <v>0.05458515283842795</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07655502392344497</v>
+        <v>0.1091703056768559</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02870813397129187</v>
+        <v>0.03056768558951965</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1818181818181818</v>
+        <v>0.1812227074235808</v>
       </c>
       <c r="R8">
-        <v>0.1148325358851675</v>
+        <v>0.1135371179039301</v>
       </c>
       <c r="S8">
-        <v>0.3779904306220095</v>
+        <v>0.3820960698689956</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07000000000000001</v>
+        <v>0.05241935483870968</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.16</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.19</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="R9">
-        <v>0.05</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="S9">
-        <v>0.4</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.135303265940902</v>
+        <v>0.1207764198418404</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02332814930015552</v>
+        <v>0.02659956865564342</v>
       </c>
       <c r="E10">
-        <v>0.001555209953343701</v>
+        <v>0.001437814521926672</v>
       </c>
       <c r="F10">
-        <v>0.06687402799377916</v>
+        <v>0.06470165348670022</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1306376360808709</v>
+        <v>0.1157440690150971</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01555209953343701</v>
+        <v>0.01581595974119339</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1990668740279938</v>
+        <v>0.2135154565061107</v>
       </c>
       <c r="R10">
-        <v>0.06687402799377916</v>
+        <v>0.07548526240115025</v>
       </c>
       <c r="S10">
-        <v>0.3608087091757387</v>
+        <v>0.3659237958303379</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1510791366906475</v>
+        <v>0.1564417177914111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09352517985611511</v>
+        <v>0.06748466257668712</v>
       </c>
       <c r="K11">
-        <v>0.1942446043165468</v>
+        <v>0.1993865030674846</v>
       </c>
       <c r="L11">
-        <v>0.539568345323741</v>
+        <v>0.5552147239263804</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02158273381294964</v>
+        <v>0.02147239263803681</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7564102564102564</v>
+        <v>0.7409326424870466</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.141025641025641</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="K12">
-        <v>0.03846153846153846</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="L12">
-        <v>0.03846153846153846</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02564102564102564</v>
+        <v>0.0310880829015544</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01769911504424779</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1946902654867257</v>
+        <v>0.1356589147286822</v>
       </c>
       <c r="I15">
-        <v>0.07079646017699115</v>
+        <v>0.06589147286821706</v>
       </c>
       <c r="J15">
-        <v>0.3097345132743363</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="K15">
-        <v>0.07079646017699115</v>
+        <v>0.09689922480620156</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05309734513274336</v>
+        <v>0.1124031007751938</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2831858407079646</v>
+        <v>0.2596899224806202</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1559633027522936</v>
+        <v>0.1476190476190476</v>
       </c>
       <c r="I16">
-        <v>0.04587155963302753</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J16">
-        <v>0.4220183486238532</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="K16">
-        <v>0.1009174311926606</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03669724770642202</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03669724770642202</v>
+        <v>0.06190476190476191</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2018348623853211</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02369668246445497</v>
+        <v>0.02208835341365462</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2227488151658768</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="I17">
-        <v>0.0995260663507109</v>
+        <v>0.09839357429718876</v>
       </c>
       <c r="J17">
-        <v>0.3981042654028436</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="K17">
-        <v>0.06635071090047394</v>
+        <v>0.08835341365461848</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02369668246445497</v>
+        <v>0.02208835341365462</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06161137440758294</v>
+        <v>0.06224899598393574</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1042654028436019</v>
+        <v>0.1044176706827309</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02150537634408602</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1397849462365591</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I18">
-        <v>0.1290322580645161</v>
+        <v>0.1294642857142857</v>
       </c>
       <c r="J18">
-        <v>0.3763440860215054</v>
+        <v>0.40625</v>
       </c>
       <c r="K18">
-        <v>0.04301075268817205</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01075268817204301</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1075268817204301</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1720430107526882</v>
+        <v>0.1294642857142857</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01605136436597111</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1797752808988764</v>
+        <v>0.1849507735583685</v>
       </c>
       <c r="I19">
-        <v>0.08667736757624397</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="J19">
-        <v>0.4109149277688603</v>
+        <v>0.3783403656821379</v>
       </c>
       <c r="K19">
-        <v>0.115569823434992</v>
+        <v>0.1061884669479606</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01284109149277689</v>
+        <v>0.02320675105485232</v>
       </c>
       <c r="N19">
-        <v>0.001605136436597111</v>
+        <v>0.002109704641350211</v>
       </c>
       <c r="O19">
-        <v>0.06581059390048154</v>
+        <v>0.06118143459915612</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1107544141252006</v>
+        <v>0.130098452883263</v>
       </c>
     </row>
   </sheetData>
